--- a/Libros/pobrezaCocinado.xlsx
+++ b/Libros/pobrezaCocinado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
   <si>
     <t>Línea de pobreza total </t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Para 2006, los departamentos de Quiché, Alta Verapaz y Sololá, mostraban los porcentajes de pobreza más altos, con 81.0\%, 78.8\% y 74.6\%, respectivamente. Escuintla y el Progreso presentaban poco más de la mitad de la pobreza observada en Quiché. Así mismo, los departamentos con los niveles más bajos de pobreza eran Sacatepéquez con 36.5\% y Guatemala con  16.3\%, </t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>Departamento</t>
@@ -394,6 +397,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -494,7 +498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -597,14 +601,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -644,8 +640,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,53 +722,57 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>5.41912238363987</v>
@@ -781,7 +780,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>13.23424068767</v>
@@ -789,7 +788,7 @@
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="25" t="n">
         <v>8.44333469761525</v>
@@ -797,7 +796,7 @@
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="n">
         <v>23.4100658184306</v>
@@ -805,7 +804,7 @@
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="25" t="n">
         <v>11.243186741322</v>
@@ -813,7 +812,7 @@
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="25" t="n">
         <v>12.9266997214875</v>
@@ -821,7 +820,7 @@
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="25" t="n">
         <v>39.8709474802113</v>
@@ -829,7 +828,7 @@
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>41.0703571705716</v>
@@ -837,7 +836,7 @@
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>16.6681320845628</v>
@@ -845,7 +844,7 @@
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>19.825427335637</v>
@@ -853,7 +852,7 @@
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="25" t="n">
         <v>15.271499702577</v>
@@ -861,7 +860,7 @@
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="25" t="n">
         <v>22.0291886930851</v>
@@ -869,7 +868,7 @@
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="25" t="n">
         <v>28.5544678051766</v>
@@ -877,7 +876,7 @@
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="25" t="n">
         <v>41.8140230080603</v>
@@ -885,7 +884,7 @@
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="25" t="n">
         <v>24.6175685267178</v>
@@ -893,7 +892,7 @@
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>53.6236694093442</v>
@@ -902,7 +901,7 @@
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>20.177972941357</v>
@@ -910,7 +909,7 @@
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>35.176117306328</v>
@@ -918,7 +917,7 @@
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>21.3662432558732</v>
@@ -926,7 +925,7 @@
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>41.142645010676</v>
@@ -934,7 +933,7 @@
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="25" t="n">
         <v>22.324328428298</v>
@@ -942,7 +941,7 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="25" t="n">
         <v>24.21854540708</v>
@@ -972,18 +971,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,26 +991,26 @@
     </row>
     <row r="4" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="n">
+      <c r="B14" s="27" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="27" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="27" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>22.7255606673366</v>
@@ -1048,18 +1046,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,24 +1065,24 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>76</v>
+      <c r="A4" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="n">
+      <c r="B14" s="27" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="27" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="27" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>3.72200363226989</v>
@@ -1121,48 +1118,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>8.475522441496</v>
@@ -1170,7 +1166,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>16.130494774241</v>
@@ -1178,7 +1174,7 @@
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="25" t="n">
         <v>10.695060197277</v>
@@ -1186,7 +1182,7 @@
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="n">
         <v>23.7839182545835</v>
@@ -1194,7 +1190,7 @@
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="25" t="n">
         <v>14.861284923839</v>
@@ -1202,7 +1198,7 @@
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="25" t="n">
         <v>16.3917336090222</v>
@@ -1210,7 +1206,7 @@
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="25" t="n">
         <v>33.386831299638</v>
@@ -1218,7 +1214,7 @@
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>34.001683035641</v>
@@ -1226,7 +1222,7 @@
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>18.324164802197</v>
@@ -1234,7 +1230,7 @@
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>20.869928043803</v>
@@ -1242,7 +1238,7 @@
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="25" t="n">
         <v>18.195339502696</v>
@@ -1250,7 +1246,7 @@
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="25" t="n">
         <v>21.97457540511</v>
@@ -1258,7 +1254,7 @@
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="25" t="n">
         <v>28.1106732594477</v>
@@ -1266,7 +1262,7 @@
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="25" t="n">
         <v>32.3403533636896</v>
@@ -1274,7 +1270,7 @@
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="25" t="n">
         <v>23.6664477239799</v>
@@ -1282,7 +1278,7 @@
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>40.0669844753696</v>
@@ -1290,7 +1286,7 @@
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>21.7215745788994</v>
@@ -1298,7 +1294,7 @@
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>27.4684661523729</v>
@@ -1306,7 +1302,7 @@
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>20.621842513134</v>
@@ -1314,7 +1310,7 @@
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>33.925204849854</v>
@@ -1322,7 +1318,7 @@
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="25" t="n">
         <v>23.212850734251</v>
@@ -1330,7 +1326,7 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="25" t="n">
         <v>23.391107151831</v>
@@ -1360,18 +1356,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,23 +1376,23 @@
     </row>
     <row r="4" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="29" t="n">
+      <c r="B14" s="27" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="27" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="27" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>11.7450802683757</v>
@@ -1427,57 +1422,58 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>3.1871996504489</v>
@@ -1485,7 +1481,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>6.64840357258346</v>
@@ -1493,7 +1489,7 @@
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="25" t="n">
         <v>3.9901240733018</v>
@@ -1501,7 +1497,7 @@
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="n">
         <v>10.601889032919</v>
@@ -1509,7 +1505,7 @@
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="25" t="n">
         <v>5.8052125223431</v>
@@ -1517,7 +1513,7 @@
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="25" t="n">
         <v>6.6792342371751</v>
@@ -1525,7 +1521,7 @@
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="25" t="n">
         <v>16.7274969084922</v>
@@ -1533,7 +1529,7 @@
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>17.72043232606</v>
@@ -1541,7 +1537,7 @@
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>7.7560015587582</v>
@@ -1549,7 +1545,7 @@
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>8.72816237545944</v>
@@ -1557,7 +1553,7 @@
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="25" t="n">
         <v>7.588584833835</v>
@@ -1565,7 +1561,7 @@
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="25" t="n">
         <v>10.506668167341</v>
@@ -1573,7 +1569,7 @@
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="25" t="n">
         <v>13.1625904477017</v>
@@ -1581,7 +1577,7 @@
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="25" t="n">
         <v>17.0962180098685</v>
@@ -1589,7 +1585,7 @@
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="25" t="n">
         <v>11.1313812149487</v>
@@ -1597,7 +1593,7 @@
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>22.7748790580782</v>
@@ -1605,7 +1601,7 @@
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>9.96402796098052</v>
@@ -1613,7 +1609,7 @@
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>15.522441939332</v>
@@ -1621,7 +1617,7 @@
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>9.64072390088159</v>
@@ -1629,7 +1625,7 @@
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>19.2096087810546</v>
@@ -1637,7 +1633,7 @@
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="25" t="n">
         <v>10.390083299661</v>
@@ -1645,7 +1641,7 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="25" t="n">
         <v>11.362994158516</v>
@@ -1669,34 +1665,34 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>91</v>
+      <c r="A4" s="28" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1707,7 +1703,7 @@
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>70.1138131411546</v>
@@ -1715,7 +1711,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>70.3386269988124</v>
@@ -1723,7 +1719,7 @@
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>67.3464227240395</v>
@@ -1731,7 +1727,7 @@
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>63.4863212160658</v>
@@ -1739,7 +1735,7 @@
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>68.2225355103856</v>
@@ -1747,7 +1743,7 @@
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>58.860187497789</v>
@@ -1777,8 +1773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,8 +1845,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,8 +1932,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,14 +2014,13 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,9 +2043,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>9</v>
@@ -2061,12 +2058,12 @@
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>16.3</v>
@@ -2074,7 +2071,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>41.8</v>
@@ -2082,7 +2079,7 @@
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="25" t="n">
         <v>36.5</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="25" t="n">
         <v>60.5</v>
@@ -2098,7 +2095,7 @@
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="25" t="n">
         <v>41.4</v>
@@ -2106,7 +2103,7 @@
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="25" t="n">
         <v>57.9</v>
@@ -2114,7 +2111,7 @@
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="25" t="n">
         <v>74.6</v>
@@ -2122,7 +2119,7 @@
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>71.9</v>
@@ -2130,7 +2127,7 @@
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>44</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>54.7</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="25" t="n">
         <v>50.4</v>
@@ -2154,7 +2151,7 @@
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="25" t="n">
         <v>65.5</v>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="25" t="n">
         <v>71.3</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="25" t="n">
         <v>81</v>
@@ -2178,7 +2175,7 @@
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="25" t="n">
         <v>70.4</v>
@@ -2186,7 +2183,7 @@
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>78.8</v>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>57</v>
@@ -2202,7 +2199,7 @@
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>51.7</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>53.9</v>
@@ -2218,7 +2215,7 @@
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>59.5</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="25" t="n">
         <v>61.2</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="25" t="n">
         <v>47.3</v>
@@ -2264,18 +2261,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2281,7 @@
     </row>
     <row r="4" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,27 +2292,27 @@
       <c r="C14" s="4" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="4" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="27" t="s">
         <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>4427</v>
@@ -2352,18 +2348,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2368,7 @@
     </row>
     <row r="4" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,13 +2378,13 @@
       <c r="C14" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D14" s="26" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>15.7</v>
@@ -2425,20 +2420,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>61</v>
+      <c r="A1" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2441,7 @@
     </row>
     <row r="4" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,18 +2508,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2528,7 @@
     </row>
     <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Libros/pobrezaCocinado.xlsx
+++ b/Libros/pobrezaCocinado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t>Línea de pobreza total </t>
   </si>
@@ -640,7 +640,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,8 +728,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,7 +973,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1049,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,14 +1116,15 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,6 +1145,11 @@
     <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1366,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,14 +1433,15 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,8 +1683,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1785,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1858,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,7 +1946,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,8 +2034,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,7 +2277,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +2365,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,8 +2438,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2528,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Libros/pobrezaCocinado.xlsx
+++ b/Libros/pobrezaCocinado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,17 +13,19 @@
     <sheet name="1_03" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="1_04" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="1_05" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="1_06" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="1_07" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="1_08" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="1_09" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="1_10" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="1_11" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="1_12" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="1_13" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="1_14" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="1_15" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="1_16" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="1_08" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="1_09" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="1_10" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="1_11" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="1_12" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="1_13" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="1_14" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="1_15" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="1_16" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="1_17" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="1_18" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="1_06" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="1_07" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
   <si>
     <t>Línea de pobreza total </t>
   </si>
@@ -333,6 +335,27 @@
   </si>
   <si>
     <t>Entre 18 y 19</t>
+  </si>
+  <si>
+    <t>Pobreza total en los departamentos 2014</t>
+  </si>
+  <si>
+    <t>Incidencia de pobreza total por departamento 2014</t>
+  </si>
+  <si>
+    <t>Los departamentos de Alta Verapaz y Sololá muestran porcentajes de pobreza por encima del 80\%, siguiendo el departamento de Totonicapán con 77.5\%. En el departamento de Sacatepéquez, el 41.1\% de la población se encuentra por debajo de la línea de pobreza, y en Guatemala, la tercera parte de la población no alcanza a consumir los 10,218 quetzales por persona al año.</t>
+  </si>
+  <si>
+    <t>Aumento de la pobreza</t>
+  </si>
+  <si>
+    <t>Aumento o reducción de la pobreza entre 2006 y 2014</t>
+  </si>
+  <si>
+    <t>Encovi 2006 y 2014, en porcentaje</t>
+  </si>
+  <si>
+    <t>Los resultados positivos de la comparación entre 2006 y 2014, significan un aumento de la pobreza en este período. Se puede observar que el mayor aumento entre estos dos años, se dio en el departamento de Guatemala, con un aumento de 17 puntos porcentuales en la pobreza. Le siguen los departamentos de Jutiapa, Quetzaltenango, Escuintla, El Progreso y Chiquimula, con un aumento de más de 10 puntos porcentuales. Los departamentos que muestran una reducción de la pobreza son Quiché, San Marcos, Baja Verapaz y Santa Rosa. </t>
   </si>
 </sst>
 </file>
@@ -596,7 +619,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -640,8 +663,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,9 +751,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,8 +996,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,8 +1072,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,15 +1139,15 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,14 +1383,14 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,9 +1462,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,8 +1706,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.24696356275304"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,6 +1791,110 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="900.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1785,8 +1912,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,8 +1985,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,8 +2073,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,9 +2161,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,14 +2398,14 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,8 +2492,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,10 +2565,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,8 +2655,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Libros/pobrezaCocinado.xlsx
+++ b/Libros/pobrezaCocinado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -619,7 +619,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -663,7 +663,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -751,8 +751,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -996,7 +996,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1066,13 +1066,13 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="297.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
@@ -1145,8 +1145,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1389,7 +1389,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1462,8 +1462,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1802,7 +1802,7 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1854,8 +1854,8 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1912,7 +1912,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1985,7 +1985,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2073,7 +2073,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2156,13 +2156,13 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2404,7 +2404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2492,7 +2492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2565,9 +2565,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2655,7 +2655,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Libros/pobrezaCocinado.xlsx
+++ b/Libros/pobrezaCocinado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1_01" sheetId="1" state="visible" r:id="rId2"/>
@@ -368,7 +368,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -413,13 +413,6 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -521,7 +514,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,60 +559,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -630,7 +615,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,12 +643,12 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -746,229 +731,229 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="23" t="n">
         <v>5.41912238363987</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="23" t="n">
         <v>13.23424068767</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="23" t="n">
         <v>8.44333469761525</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="23" t="n">
         <v>23.4100658184306</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="23" t="n">
         <v>11.243186741322</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="23" t="n">
         <v>12.9266997214875</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="25" t="n">
+      <c r="B22" s="23" t="n">
         <v>39.8709474802113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="25" t="n">
+      <c r="B23" s="23" t="n">
         <v>41.0703571705716</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25" t="n">
+      <c r="B24" s="23" t="n">
         <v>16.6681320845628</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="25" t="n">
+      <c r="B25" s="23" t="n">
         <v>19.825427335637</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="23" t="n">
         <v>15.271499702577</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="25" t="n">
+      <c r="B27" s="23" t="n">
         <v>22.0291886930851</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="25" t="n">
+      <c r="B28" s="23" t="n">
         <v>28.5544678051766</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="25" t="n">
+      <c r="B29" s="23" t="n">
         <v>41.8140230080603</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="25" t="n">
+      <c r="B30" s="23" t="n">
         <v>24.6175685267178</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="23" t="n">
         <v>53.6236694093442</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="23" t="n">
         <v>20.177972941357</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="23" t="n">
         <v>35.176117306328</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="25" t="n">
+      <c r="B34" s="23" t="n">
         <v>21.3662432558732</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="25" t="n">
+      <c r="B35" s="23" t="n">
         <v>41.142645010676</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="23" t="n">
         <v>22.324328428298</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="25" t="n">
+      <c r="B37" s="23" t="n">
         <v>24.21854540708</v>
       </c>
     </row>
@@ -991,32 +976,32 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1024,13 +1009,13 @@
       <c r="A5" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="25" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="25" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="25" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -1066,44 +1051,44 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="297.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="25" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="25" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="25" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -1140,228 +1125,228 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="23" t="n">
         <v>8.475522441496</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="23" t="n">
         <v>16.130494774241</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="23" t="n">
         <v>10.695060197277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="23" t="n">
         <v>23.7839182545835</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="23" t="n">
         <v>14.861284923839</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="23" t="n">
         <v>16.3917336090222</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="25" t="n">
+      <c r="B22" s="23" t="n">
         <v>33.386831299638</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="25" t="n">
+      <c r="B23" s="23" t="n">
         <v>34.001683035641</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25" t="n">
+      <c r="B24" s="23" t="n">
         <v>18.324164802197</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="25" t="n">
+      <c r="B25" s="23" t="n">
         <v>20.869928043803</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="23" t="n">
         <v>18.195339502696</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="25" t="n">
+      <c r="B27" s="23" t="n">
         <v>21.97457540511</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="25" t="n">
+      <c r="B28" s="23" t="n">
         <v>28.1106732594477</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="25" t="n">
+      <c r="B29" s="23" t="n">
         <v>32.3403533636896</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="25" t="n">
+      <c r="B30" s="23" t="n">
         <v>23.6664477239799</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="23" t="n">
         <v>40.0669844753696</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="23" t="n">
         <v>21.7215745788994</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="23" t="n">
         <v>27.4684661523729</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="25" t="n">
+      <c r="B34" s="23" t="n">
         <v>20.621842513134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="25" t="n">
+      <c r="B35" s="23" t="n">
         <v>33.925204849854</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="23" t="n">
         <v>23.212850734251</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="25" t="n">
+      <c r="B37" s="23" t="n">
         <v>23.391107151831</v>
       </c>
     </row>
@@ -1383,44 +1368,44 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="25" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="25" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="25" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -1456,229 +1441,229 @@
   </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="23" t="n">
         <v>3.1871996504489</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="23" t="n">
         <v>6.64840357258346</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="23" t="n">
         <v>3.9901240733018</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="23" t="n">
         <v>10.601889032919</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="23" t="n">
         <v>5.8052125223431</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="23" t="n">
         <v>6.6792342371751</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="25" t="n">
+      <c r="B22" s="23" t="n">
         <v>16.7274969084922</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="25" t="n">
+      <c r="B23" s="23" t="n">
         <v>17.72043232606</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25" t="n">
+      <c r="B24" s="23" t="n">
         <v>7.7560015587582</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="25" t="n">
+      <c r="B25" s="23" t="n">
         <v>8.72816237545944</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="23" t="n">
         <v>7.588584833835</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="25" t="n">
+      <c r="B27" s="23" t="n">
         <v>10.506668167341</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="25" t="n">
+      <c r="B28" s="23" t="n">
         <v>13.1625904477017</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="25" t="n">
+      <c r="B29" s="23" t="n">
         <v>17.0962180098685</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="25" t="n">
+      <c r="B30" s="23" t="n">
         <v>11.1313812149487</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="23" t="n">
         <v>22.7748790580782</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="23" t="n">
         <v>9.96402796098052</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="23" t="n">
         <v>15.522441939332</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="25" t="n">
+      <c r="B34" s="23" t="n">
         <v>9.64072390088159</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="25" t="n">
+      <c r="B35" s="23" t="n">
         <v>19.2096087810546</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="23" t="n">
         <v>10.390083299661</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="25" t="n">
+      <c r="B37" s="23" t="n">
         <v>11.362994158516</v>
       </c>
     </row>
@@ -1701,7 +1686,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1710,23 +1695,23 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.24696356275304"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1803,7 +1788,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1826,12 +1811,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="673.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
@@ -1854,8 +1839,8 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1878,8 +1863,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="900.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1907,12 +1892,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1979,8 +1964,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1989,63 +1974,63 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="511.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="n">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="n">
         <v>2000</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="13" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="15" t="n">
         <v>77.2722552478588</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="15" t="n">
         <v>74.9817182959999</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="16" t="n">
         <v>79.2156625612348</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20" t="n">
+      <c r="B15" s="18" t="n">
         <v>41.8939982247752</v>
       </c>
-      <c r="C15" s="20" t="n">
+      <c r="C15" s="18" t="n">
         <v>36.3232527683497</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="19" t="n">
         <v>46.5657497167415</v>
       </c>
     </row>
@@ -2068,72 +2053,72 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="n">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="13" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="15" t="n">
         <v>27.3477728941257</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="15" t="n">
         <v>30.1565902518536</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="16" t="n">
         <v>42.146441849036</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="15" t="n">
         <v>74.5281678130862</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="15" t="n">
         <v>70.5497379963308</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="16" t="n">
         <v>76.1027151898926</v>
       </c>
     </row>
@@ -2161,222 +2146,222 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="23" t="n">
         <v>16.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="25" t="n">
+      <c r="B17" s="23" t="n">
         <v>41.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="23" t="n">
         <v>36.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="23" t="n">
         <v>60.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="23" t="n">
         <v>41.4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="23" t="n">
         <v>57.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="25" t="n">
+      <c r="B22" s="23" t="n">
         <v>74.6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="25" t="n">
+      <c r="B23" s="23" t="n">
         <v>71.9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25" t="n">
+      <c r="B24" s="23" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="25" t="n">
+      <c r="B25" s="23" t="n">
         <v>54.7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="n">
+      <c r="B26" s="23" t="n">
         <v>50.4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="25" t="n">
+      <c r="B27" s="23" t="n">
         <v>65.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="25" t="n">
+      <c r="B28" s="23" t="n">
         <v>71.3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="25" t="n">
+      <c r="B29" s="23" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="25" t="n">
+      <c r="B30" s="23" t="n">
         <v>70.4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="23" t="n">
         <v>78.8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="23" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="23" t="n">
         <v>51.7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="25" t="n">
+      <c r="B34" s="23" t="n">
         <v>53.9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="25" t="n">
+      <c r="B35" s="23" t="n">
         <v>59.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="23" t="n">
         <v>61.2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="25" t="n">
+      <c r="B37" s="23" t="n">
         <v>47.3</v>
       </c>
     </row>
@@ -2398,33 +2383,33 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2487,12 +2472,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2501,18 +2486,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2523,7 +2508,7 @@
       <c r="C14" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="24" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -2537,7 +2522,7 @@
       <c r="C15" s="10" t="n">
         <v>15.2620151467603</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="23" t="n">
         <v>23.3558851595</v>
       </c>
     </row>
@@ -2560,74 +2545,74 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="n">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="13" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="15" t="n">
         <v>27.0942744519458</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="15" t="n">
         <v>27.3033981292442</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="16" t="n">
         <v>39.7533999619449</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="15" t="n">
         <v>7.80938318068351</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="15" t="n">
         <v>7.75738140981386</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="16" t="n">
         <v>12.8452526090207</v>
       </c>
     </row>
@@ -2650,72 +2635,72 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="n">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="n">
         <v>2000</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="13" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="15" t="n">
         <v>2.83233638773467</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="15" t="n">
         <v>5.33271513117193</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="16" t="n">
         <v>11.2262326770369</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="15" t="n">
         <v>23.7594235803547</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="15" t="n">
         <v>24.4320442138849</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="16" t="n">
         <v>35.2588572736392</v>
       </c>
     </row>
